--- a/docsite/static/examples/financial-calculators.xlsx
+++ b/docsite/static/examples/financial-calculators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\sheetxl\private\docsite\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA209C-5D67-47B8-A2BB-ECA579302B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD009B-131F-4158-8A75-13A107979DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5F1ED4BD-F4B9-457B-9C48-4FFC768BA210}"/>
+    <workbookView xWindow="315" yWindow="3255" windowWidth="22680" windowHeight="12045" xr2:uid="{5F1ED4BD-F4B9-457B-9C48-4FFC768BA210}"/>
   </bookViews>
   <sheets>
     <sheet name="WACC" sheetId="1" r:id="rId1"/>
@@ -2645,6 +2645,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2652,7 +2653,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3722,7 +3722,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
@@ -4514,7 +4514,7 @@
       <c r="V26"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="8"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>

--- a/docsite/static/examples/financial-calculators.xlsx
+++ b/docsite/static/examples/financial-calculators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\sheetxl\private\docsite\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD009B-131F-4158-8A75-13A107979DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D513E0-C7E8-49A2-A0ED-745415C8D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="3255" windowWidth="22680" windowHeight="12045" xr2:uid="{5F1ED4BD-F4B9-457B-9C48-4FFC768BA210}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F1ED4BD-F4B9-457B-9C48-4FFC768BA210}"/>
   </bookViews>
   <sheets>
     <sheet name="WACC" sheetId="1" r:id="rId1"/>
@@ -3719,11 +3719,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
   <cols>
@@ -3741,11 +3739,11 @@
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="12.75" customHeight="1">
+    <row r="1" spans="2:21" ht="12.75" customHeight="1">
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:22" ht="38.25" customHeight="1">
+    <row r="2" spans="2:21" ht="38.25" customHeight="1">
       <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3767,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="2:22" ht="18.75" customHeight="1">
+    <row r="3" spans="2:21" ht="18.75" customHeight="1">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3779,7 +3777,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:21">
       <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3803,7 +3801,7 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:21">
       <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:21">
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:21">
       <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
@@ -3901,7 +3899,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:21">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:21">
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="18"/>
@@ -3944,7 +3942,7 @@
         <v>1.28373786407767</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:21">
       <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>8.3442961165048554E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:21">
       <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>4.2250000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:21">
       <c r="N12" s="29" t="s">
         <v>7</v>
       </c>
@@ -3999,7 +3997,7 @@
         <v>0.10844296116504856</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:21">
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4009,7 +4007,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:21">
       <c r="B14" s="22" t="s">
         <v>42</v>
       </c>
@@ -4026,7 +4024,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:21">
       <c r="B15" s="54"/>
       <c r="C15" s="57">
         <f>+D11</f>
@@ -4053,7 +4051,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:21">
       <c r="B16" s="285" t="s">
         <v>43</v>
       </c>
@@ -4087,9 +4085,8 @@
       <c r="P16" s="22"/>
       <c r="T16"/>
       <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="2:22">
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="285"/>
       <c r="C17" s="58">
         <f>+C16+5%</f>
@@ -4134,9 +4131,8 @@
       </c>
       <c r="T17"/>
       <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="2:22">
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="285"/>
       <c r="C18" s="58">
         <f t="shared" ref="C18:C26" si="1">+C17+10%</f>
@@ -4183,9 +4179,8 @@
       </c>
       <c r="T18"/>
       <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="2:22">
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="285"/>
       <c r="C19" s="58">
         <f t="shared" si="1"/>
@@ -4232,9 +4227,8 @@
       </c>
       <c r="T19"/>
       <c r="U19"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="2:22">
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="285"/>
       <c r="C20" s="58">
         <f t="shared" si="1"/>
@@ -4281,9 +4275,8 @@
       </c>
       <c r="T20"/>
       <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="2:22">
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="285"/>
       <c r="C21" s="58">
         <f t="shared" si="1"/>
@@ -4330,9 +4323,8 @@
       </c>
       <c r="T21"/>
       <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="2:22">
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="285"/>
       <c r="C22" s="58">
         <f t="shared" si="1"/>
@@ -4379,9 +4371,8 @@
       </c>
       <c r="T22"/>
       <c r="U22"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="2:22">
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="285"/>
       <c r="C23" s="58">
         <f t="shared" si="1"/>
@@ -4426,9 +4417,8 @@
       </c>
       <c r="T23"/>
       <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="2:22">
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="285"/>
       <c r="C24" s="58">
         <f t="shared" si="1"/>
@@ -4452,9 +4442,8 @@
       <c r="I24" s="2"/>
       <c r="T24"/>
       <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="2:22">
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="285"/>
       <c r="C25" s="58">
         <f t="shared" si="1"/>
@@ -4485,9 +4474,8 @@
       </c>
       <c r="T25"/>
       <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="2:22">
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="285"/>
       <c r="C26" s="58">
         <f t="shared" si="1"/>
@@ -4511,9 +4499,8 @@
       <c r="I26" s="2"/>
       <c r="T26"/>
       <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="2:22">
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="50"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4530,9 +4517,8 @@
       </c>
       <c r="T27"/>
       <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="2:22">
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4548,7 +4534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:21">
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4561,7 +4547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:21">
       <c r="B30" s="13" t="s">
         <v>0</v>
       </c>
@@ -4576,7 +4562,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:21">
       <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
@@ -4591,7 +4577,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:21">
       <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
